--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487042.9233247664</v>
+        <v>485155.3418083648</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>209.3084708563295</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>226.7473120719538</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.11041309544154</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>65.25024693872075</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>356.5127785795202</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>133.5738774143955</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>39.06754378872183</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>129.0326605836836</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>142.6581012934775</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>267.5887738868117</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.59601561836874</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>216.6993815150877</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>81.00736218095851</v>
+        <v>169.7572882889412</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>48.05202235368774</v>
       </c>
       <c r="W16" t="n">
-        <v>160.0341105133444</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>59.0797139847823</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.633341602776056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>82.82589803406179</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>43.67922486907219</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>54.68552791822921</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>22.87983360476886</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>141.2552209831411</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.42040706176599</v>
+        <v>72.96185380495236</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
@@ -3013,7 +3013,7 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235378</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.0401021781393</v>
+        <v>1034.617283051399</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>1034.617283051399</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>676.3515844446483</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>676.3515844446483</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>265.3656796550408</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4361,19 +4361,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2249.476735028716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1918.413847685145</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1565.645192415031</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X2" t="n">
-        <v>1192.179434153951</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y2" t="n">
-        <v>802.0401021781393</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.27673242182055</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587812</v>
+        <v>257.3478788207</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587812</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W4" t="n">
-        <v>76.27673242182055</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X4" t="n">
-        <v>76.27673242182055</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.27673242182055</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1371.274936282423</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1371.274936282423</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1371.274936282423</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>985.4866836841791</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.274936282423</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.2948950230958</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230958</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.2948950230958</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1507.652482896327</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="C8" t="n">
-        <v>1507.652482896327</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="D8" t="n">
-        <v>1507.652482896327</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>804.8953685840313</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1507.652482896327</v>
+        <v>1602.481113437761</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>60.60562385912075</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>60.60562385912075</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>60.60562385912075</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>525.6009593486384</v>
+        <v>528.1058742183019</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>359.169691290395</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>359.169691290395</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.169691290395</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>928.0420033224083</v>
+        <v>1038.315623398792</v>
       </c>
       <c r="W13" t="n">
-        <v>928.0420033224083</v>
+        <v>748.898453361832</v>
       </c>
       <c r="X13" t="n">
-        <v>928.0420033224083</v>
+        <v>748.898453361832</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.2494241788781</v>
+        <v>528.1058742183019</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,16 +5279,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.3515998808205</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C16" t="n">
-        <v>824.3515998808205</v>
+        <v>860.7301020851614</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684847</v>
+        <v>710.6134626728257</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684847</v>
+        <v>562.7003690904324</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705743</v>
+        <v>415.8104215925221</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>1250.458864156598</v>
       </c>
       <c r="W16" t="n">
-        <v>824.3515998808205</v>
+        <v>1250.458864156598</v>
       </c>
       <c r="X16" t="n">
-        <v>824.3515998808205</v>
+        <v>1250.458864156598</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.3515998808205</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247857</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247857</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188988</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>649.7747748463914</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.8871334832924</v>
+        <v>816.3222213695511</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>647.3860384416441</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>731.3177283550796</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X22" t="n">
-        <v>503.3281774570622</v>
+        <v>816.3222213695511</v>
       </c>
       <c r="Y22" t="n">
-        <v>282.5355983135321</v>
+        <v>816.3222213695511</v>
       </c>
     </row>
     <row r="23">
@@ -5972,28 +5972,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>610.8083514132643</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C25" t="n">
-        <v>441.8721684853574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>291.7555290730215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>291.7555290730215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1443.678363569791</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>965.2084601534103</v>
       </c>
       <c r="W25" t="n">
-        <v>1020.446367141521</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X25" t="n">
-        <v>792.456816243504</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y25" t="n">
-        <v>792.456816243504</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6218,13 +6218,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,16 +6309,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>562.3990000507112</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>562.3990000507112</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383755</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383755</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W28" t="n">
-        <v>877.7643257444088</v>
+        <v>585.5099430858312</v>
       </c>
       <c r="X28" t="n">
-        <v>649.7747748463914</v>
+        <v>585.5099430858312</v>
       </c>
       <c r="Y28" t="n">
-        <v>428.9821957028613</v>
+        <v>585.5099430858312</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>581.9257756783077</v>
+        <v>659.7457372049856</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783077</v>
+        <v>546.5704195584494</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473426</v>
+        <v>452.2146454274845</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463202</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297805</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309719</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056073</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252996</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818801</v>
+        <v>1503.284906591122</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894285</v>
+        <v>1304.361283666606</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386953</v>
+        <v>1070.704978911016</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220486</v>
+        <v>898.4762932943696</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598893</v>
+        <v>733.4445794322103</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6923,43 +6923,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7020,22 +7020,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,61 +7163,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,16 +7257,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,7 +7330,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254959</v>
@@ -7345,37 +7345,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7555,13 +7555,13 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7655,19 +7655,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>85.30006332127833</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>171.1302811428695</v>
+        <v>82.38035503488678</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>204.0856209701403</v>
       </c>
       <c r="W16" t="n">
-        <v>126.4888878232466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338582</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>227.4432843518087</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>163.6134794958518</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>65.78957498415056</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>101.7418231538591</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>143.235282065374</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.9521465771684</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>145.2677773534499</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.20831649161431</v>
+        <v>51.66686974842789</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523581</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="F2" t="n">
         <v>332374.7007770525</v>
@@ -26329,28 +26329,28 @@
         <v>332374.7007770526</v>
       </c>
       <c r="H2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="I2" t="n">
         <v>332374.7007770525</v>
       </c>
       <c r="J2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="K2" t="n">
-        <v>345798.8167434797</v>
+        <v>345798.8167434799</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="N2" t="n">
         <v>348942.7521923203</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="P2" t="n">
         <v>348942.7521923204</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.6053028456</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26421,28 +26421,28 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563561</v>
+        <v>33210.29213563563</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
@@ -26457,7 +26457,7 @@
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275955</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26497,16 +26497,16 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-480659.1633368562</v>
       </c>
       <c r="C6" t="n">
+        <v>109308.7158776883</v>
+      </c>
+      <c r="D6" t="n">
         <v>109308.7158776885</v>
       </c>
-      <c r="D6" t="n">
-        <v>109308.7158776883</v>
-      </c>
       <c r="E6" t="n">
-        <v>-299818.3312699994</v>
+        <v>-299915.7903959714</v>
       </c>
       <c r="F6" t="n">
-        <v>225341.7052068967</v>
+        <v>225244.2460809246</v>
       </c>
       <c r="G6" t="n">
-        <v>225341.7052068968</v>
+        <v>225244.2460809247</v>
       </c>
       <c r="H6" t="n">
-        <v>225341.7052068968</v>
+        <v>225244.2460809243</v>
       </c>
       <c r="I6" t="n">
-        <v>225341.7052068968</v>
+        <v>225244.2460809249</v>
       </c>
       <c r="J6" t="n">
-        <v>48918.48601430375</v>
+        <v>48821.02688833173</v>
       </c>
       <c r="K6" t="n">
-        <v>171797.7107747757</v>
+        <v>171779.2170368415</v>
       </c>
       <c r="L6" t="n">
-        <v>203420.2827086684</v>
+        <v>203420.2827086686</v>
       </c>
       <c r="M6" t="n">
-        <v>78962.17427569818</v>
+        <v>78962.17427569823</v>
       </c>
       <c r="N6" t="n">
         <v>213763.1895095354</v>
       </c>
       <c r="O6" t="n">
-        <v>213763.1895095353</v>
+        <v>213763.1895095354</v>
       </c>
       <c r="P6" t="n">
-        <v>169600.5842066898</v>
+        <v>169600.5842066899</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>204.4756991644655</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>24.47685543633548</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>145.1364080031863</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>221.031627303257</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>50.36326716219122</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>82.8744429432623</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>128.179277309906</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>19.58281243452873</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>239.2722687787843</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>146.1953961339833</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7137866406822</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>69.82361682150329</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,13 +37476,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
